--- a/biology/Botanique/Bouillon-blanc/Bouillon-blanc.xlsx
+++ b/biology/Botanique/Bouillon-blanc/Bouillon-blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouillon-blanc ou bouillon blanc, est un nom vernaculaire que portent plusieurs espèces de plantes à feuilles d'aspect blanchâtre et laineux parmi les molènes (Verbascum) de la famille des Scrophulariaceae. C'est aussi un des noms vernaculaire pour désigner Psiadia boivinii, une espèce de la famille des Asteraceae, à la Réunion.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">bouillon dérive d'un mot gaulois, bugillo, désignant une plante indéterminée[pas clair], par attraction de « bouillon », en raison de l'emploi en décoction des fleurs aux vertus pectorales[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">bouillon dérive d'un mot gaulois, bugillo, désignant une plante indéterminée[pas clair], par attraction de « bouillon », en raison de l'emploi en décoction des fleurs aux vertus pectorales.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Caractéristiques communes des espèces du genre Verbascum</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'utilisation multiple du nom de « bouillon blanc » est à juste titre considérée comme une erreur par les botanistes et devrait être réservée à Verbascum thapsus. Cette dernière espèce est par ailleurs la seule à être reprise dans la pharmacopée française comme étant le bouillon blanc.
 La cucullie du bouillon blanc est un papillon dont la chenille se nourrit exclusivement de feuilles de bouillon-blanc.
@@ -576,16 +592,18 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
 Bouillon-blanc - principalement Verbascum thapsus, mais aussi Verbascum phlomoides
-Bouillon blanc commun - Verbascum thapsus[2]
-Bouillon blanc sinué - Verbascum sinuatum[2]
-Bouillons blancs - espèces du genre Verbascum[2]
-Grand bouillon-blanc - Verbascum phlomoides[3]
-Faux bouillon-blanc - Verbascum densiflorum[4]
-Petit bouillon-blanc - voir Bouillon blanc commun[3]
+Bouillon blanc commun - Verbascum thapsus
+Bouillon blanc sinué - Verbascum sinuatum
+Bouillons blancs - espèces du genre Verbascum
+Grand bouillon-blanc - Verbascum phlomoides
+Faux bouillon-blanc - Verbascum densiflorum
+Petit bouillon-blanc - voir Bouillon blanc commun
 			Verbascum thapsus.
 			Verbascum densiflorum.
 			Verbascum phlomoides.
@@ -617,7 +635,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour sa commercialisation, l'appellation « bouillon blanc » doit être réservée au seul Verbascum thapsus. Pour les autres espèces de Verbascum le nom vernaculaire de Molène est recommandé afin d'éviter toute confusion avec la plante utilisée dans la pharmacopée française
 Les molènes sont parmi les plus anciennes plantes médicinales au monde, employées essentiellement en tisanes pectorales[réf. souhaitée].
@@ -649,9 +669,11 @@
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 2e jour du mois de thermidor (mois des thermes ou bains) du calendrier républicain / révolutionnaire français est dénommé jour du bouillon-blanc[5], généralement chaque 20 juillet du calendrier grégorien.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 2e jour du mois de thermidor (mois des thermes ou bains) du calendrier républicain / révolutionnaire français est dénommé jour du bouillon-blanc, généralement chaque 20 juillet du calendrier grégorien.
 </t>
         </is>
       </c>
